--- a/biology/Botanique/Gypsophila_struthium/Gypsophila_struthium.xlsx
+++ b/biology/Botanique/Gypsophila_struthium/Gypsophila_struthium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gypsophila struthium est une espèce de plante de la famille des Caryophyllaceae et du genre Gypsophila.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante est un arbuste très ramifié, avec des feuilles linéaires grossières et de petites fleurs blanches, disposées en panicules de glomérules[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante est un arbuste très ramifié, avec des feuilles linéaires grossières et de petites fleurs blanches, disposées en panicules de glomérules.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gypsophila struthium est endémique de la péninsule ibérique[2].
-L'espèce est une plante gypsophile vivace qui fait partie des garrigues défrichées et des friches, sur les pentes crayeuses des zones arides[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gypsophila struthium est endémique de la péninsule ibérique.
+L'espèce est une plante gypsophile vivace qui fait partie des garrigues défrichées et des friches, sur les pentes crayeuses des zones arides.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Gypsophila struthium subsp. struthium : centre, l'est et le sud-est de la péninsule ibérique[2].
-Gypsophila struthium subsp. hispanica : nord et de l'est de la péninsule ibérique[2].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Gypsophila struthium subsp. struthium : centre, l'est et le sud-est de la péninsule ibérique.
+Gypsophila struthium subsp. hispanica : nord et de l'est de la péninsule ibérique.</t>
         </is>
       </c>
     </row>
@@ -605,10 +623,12 @@
           <t>Parasitologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante a pour prédateur Ormyrus orientalis (sv).
-La fleur a pour parasites Phaiogramma etruscaria, Gymnoscelis rufifasciata, Eupithecia gemellata (en), Eupithecia centaureata. Le fruit a pour parasite Sibinia iberica. La feuille a pour parasites Eupithecia gypsophilata, Microloxia herbaria, Scopula rufomixtaria (en), Aspitates ochrearia, Coleophora strutiella (en)[3].
+La fleur a pour parasites Phaiogramma etruscaria, Gymnoscelis rufifasciata, Eupithecia gemellata (en), Eupithecia centaureata. Le fruit a pour parasite Sibinia iberica. La feuille a pour parasites Eupithecia gypsophilata, Microloxia herbaria, Scopula rufomixtaria (en), Aspitates ochrearia, Coleophora strutiella (en).
 </t>
         </is>
       </c>
@@ -637,9 +657,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La racine de Gypsophila struthium servait pour traiter la laine[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La racine de Gypsophila struthium servait pour traiter la laine.
 </t>
         </is>
       </c>
